--- a/docs/ENERGIS_Price-Calc.xlsx
+++ b/docs/ENERGIS_Price-Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_GitHub\HW_10-In-Rack_PDU\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D20F07-5329-4B71-8C3F-D3917B9F2B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061CEE1-A9B0-4993-A777-0053DB2B8505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCCF0BF5-3C15-4C1E-8454-8EC448751031}"/>
   </bookViews>
@@ -143,10 +143,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$EUR]\ #,##0.00_);\([$EUR]\ #,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$EUR]\ #,##0.00_);\([$EUR]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -597,21 +597,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -623,6 +614,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,16 +636,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="2" builtinId="8"/>
@@ -978,23 +978,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D24EA-7013-4019-B063-4E522050C142}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1">
+    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1023,11 +1023,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1050,16 +1050,16 @@
         <f>F2+G2</f>
         <v>16</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="29">
         <f>MAX(H2:H8)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1069,7 +1069,7 @@
         <v>296.82</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E32" si="0">D3/A3</f>
+        <f t="shared" ref="E3:E21" si="0">D3/A3</f>
         <v>59.363999999999997</v>
       </c>
       <c r="F3" s="2">
@@ -1079,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H32" si="1">F3+G3</f>
+        <f t="shared" ref="H3:H21" si="1">F3+G3</f>
         <v>33</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1111,13 +1111,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1140,13 +1140,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1169,13 +1169,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1198,13 +1198,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1227,13 +1227,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1257,16 +1257,16 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="29">
         <f>MAX(H9:H11)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1290,13 +1290,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1320,16 +1320,16 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="10">
@@ -1350,19 +1350,19 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="32">
         <f>MAX(H12)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2">
@@ -1383,16 +1383,16 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2">
@@ -1413,16 +1413,16 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2">
@@ -1443,16 +1443,16 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
@@ -1473,9 +1473,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>5</v>
       </c>
@@ -1503,9 +1503,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -1528,9 +1528,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1576,20 +1576,20 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="2"/>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
@@ -1597,280 +1597,49 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="32">
-        <f>SUM(D2:D32)</f>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="35">
+        <f>SUM(D2:D21)</f>
         <v>2060.0225</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="31" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="34">
-        <f>SUM(E2:E33)</f>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="26">
+        <f>SUM(E2:E22)</f>
         <v>418.88209999999987</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F23" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="35">
-        <f>E34*0.85</f>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="27">
+        <f>E23*0.85</f>
         <v>356.04978499999987</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I2:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I17"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" xr:uid="{F675B1F5-6E87-4BEE-A9C9-F8AAD6E21554}"/>
